--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
@@ -1431,47 +1431,47 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>S324072020165643</t>
+          <t>S306102020130023</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="O2" s="46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="AQ2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="AR2" s="46" t="inlineStr">
@@ -1804,12 +1804,12 @@
       <c r="CO2" s="46" t="n"/>
       <c r="CP2" s="46" t="inlineStr">
         <is>
-          <t>01-Jun-2021</t>
+          <t>19-Jan-2022</t>
         </is>
       </c>
       <c r="CQ2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="CR2" s="46" t="n"/>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="DA2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="DB2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="DC2" s="48" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="DN2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="DO2" s="11" t="inlineStr">
@@ -1931,7 +1931,7 @@
       <c r="DP2" s="11" t="n"/>
       <c r="DQ2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="DR2" s="48" t="inlineStr">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="P2" s="1" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="41" t="inlineStr">
         <is>
@@ -2862,12 +2862,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="M2" s="10" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="E2" s="47" t="inlineStr">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>60000044</t>
+          <t>60001085</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>60000044</t>
+          <t>60001085</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="D2" s="47" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="L2" s="47" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="S2" s="46" t="inlineStr">
         <is>
-          <t>01-Jun-2021</t>
+          <t>19-Jan-2022</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="Y2" s="11" t="inlineStr">
         <is>
-          <t>60000044</t>
+          <t>60001085</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AI2" s="11" t="inlineStr">
         <is>
-          <t>60000044</t>
+          <t>60001085</t>
         </is>
       </c>
       <c r="AJ2" s="1" t="n"/>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>BNS3_24072020165643</t>
+          <t>BNS3_06102020130023</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>FACBG24072020171254</t>
+          <t>FACBG05102020122445</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>60000044</t>
+          <t>60001085</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -7658,11 +7658,11 @@
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>02-Jun-2020</t>
+          <t>20-Jan-2021</t>
         </is>
       </c>
       <c r="J2" s="40" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D353AA0D-7C47-4149-BA5C-32DC7FAC50F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE8703-1E5B-4CB2-951C-C4A25CC911E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED01_DealSetup" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="775">
   <si>
     <t>rowid</t>
   </si>
@@ -445,16 +445,16 @@
     <t>S3</t>
   </si>
   <si>
-    <t>BNS3_09102020214046</t>
-  </si>
-  <si>
-    <t>S309102020214046</t>
-  </si>
-  <si>
-    <t>FACBG09102020214841</t>
-  </si>
-  <si>
-    <t>28-Jan-2021</t>
+    <t>BNS3_21102020033933</t>
+  </si>
+  <si>
+    <t>S321102020033933</t>
+  </si>
+  <si>
+    <t>FACBG21102020034627</t>
+  </si>
+  <si>
+    <t>29-Apr-2021</t>
   </si>
   <si>
     <t>AUD</t>
@@ -598,7 +598,7 @@
     <t>100,000.00</t>
   </si>
   <si>
-    <t>28-Jan-2022</t>
+    <t>29-Apr-2022</t>
   </si>
   <si>
     <t>Commonwealth Bank of Australia -DBU</t>
@@ -1063,7 +1063,7 @@
     <t>Sheet_Name</t>
   </si>
   <si>
-    <t>60001175</t>
+    <t>60001287</t>
   </si>
   <si>
     <t>SBLC/Guarantee</t>
@@ -1072,19 +1072,16 @@
     <t>20-Mar-2019</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>01-Jun-2020</t>
-  </si>
-  <si>
-    <t>07-Jun-2020</t>
-  </si>
-  <si>
-    <t>0.58</t>
+    <t>-49.32</t>
+  </si>
+  <si>
+    <t>49.32</t>
+  </si>
+  <si>
+    <t>05-May-2021</t>
+  </si>
+  <si>
+    <t>57.53</t>
   </si>
   <si>
     <t>This is to adjust the cycle share of the SBLC Issuance.</t>
@@ -2254,7 +2251,7 @@
     <t>SBLC/Guarantee Issuance</t>
   </si>
   <si>
-    <t>Pay in Advance</t>
+    <t>Pay In Advance</t>
   </si>
   <si>
     <t>this refers to a lender account</t>
@@ -2272,6 +2269,9 @@
     <t>CycleNumber</t>
   </si>
   <si>
+    <t>0.58</t>
+  </si>
+  <si>
     <t>FJAPR01</t>
   </si>
   <si>
@@ -2282,9 +2282,6 @@
   </si>
   <si>
     <t>FJMGR01</t>
-  </si>
-  <si>
-    <t>Pay In Advance</t>
   </si>
   <si>
     <t>CUSTSHORT55140</t>
@@ -4040,52 +4037,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>752</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>753</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>319</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>758</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>759</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>328</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
@@ -4156,22 +4153,22 @@
         <v>135</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>762</v>
-      </c>
       <c r="E2" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>746</v>
@@ -4180,7 +4177,7 @@
         <v>747</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>142</v>
@@ -4195,13 +4192,13 @@
         <v>147</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>49.32</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>763</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>764</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>765</v>
       </c>
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
@@ -4302,37 +4299,37 @@
       <c r="EJ2" s="41"/>
       <c r="EK2" s="41"/>
       <c r="EL2" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="EM2" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="EM2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="EO2" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="EQ2" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="EU2" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="EV2" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -5246,58 +5243,58 @@
         <v>348</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="P2" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="R2" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="S2" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="T2" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="U2" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="V2" s="47" t="s">
         <v>358</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="W2" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="X2" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="Y2" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Z2" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="Z2" s="47" t="s">
+      <c r="AA2" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB2" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="AA2" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB2" s="47" t="s">
+      <c r="AC2" s="47" t="s">
         <v>364</v>
-      </c>
-      <c r="AC2" s="47" t="s">
-        <v>365</v>
       </c>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
@@ -5555,43 +5552,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>340</v>
@@ -5606,382 +5603,382 @@
         <v>333</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AL1" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AO1" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AP1" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AS1" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AT1" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AX1" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AY1" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BA1" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BE1" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BF1" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BG1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BI1" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BK1" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BL1" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BM1" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BN1" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BO1" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="BO1" s="20" t="s">
+      <c r="BP1" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BR1" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BS1" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BT1" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="BT1" s="19" t="s">
+      <c r="BU1" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="BU1" s="19" t="s">
+      <c r="BV1" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="BV1" s="19" t="s">
+      <c r="BW1" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="BW1" s="19" t="s">
+      <c r="BX1" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="BX1" s="19" t="s">
+      <c r="BY1" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="BY1" s="19" t="s">
+      <c r="BZ1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="BZ1" s="19" t="s">
+      <c r="CA1" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="CA1" s="19" t="s">
+      <c r="CB1" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="CB1" s="19" t="s">
+      <c r="CC1" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CD1" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="CD1" s="19" t="s">
+      <c r="CE1" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="CE1" s="19" t="s">
+      <c r="CF1" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="CF1" s="19" t="s">
+      <c r="CG1" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="CG1" s="19" t="s">
+      <c r="CH1" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="CH1" s="19" t="s">
+      <c r="CI1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="CI1" s="19" t="s">
+      <c r="CJ1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CK1" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="CK1" s="19" t="s">
+      <c r="CL1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CM1" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CN1" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CO1" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CP1" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CQ1" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CR1" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CS1" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CT1" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CU1" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="DA1" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="DA1" s="19" t="s">
+      <c r="DB1" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="DB1" s="19" t="s">
+      <c r="DC1" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DD1" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="DD1" s="19" t="s">
+      <c r="DE1" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="DE1" s="19" t="s">
+      <c r="DF1" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DG1" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DH1" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="DH1" s="19" t="s">
+      <c r="DI1" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="DI1" s="19" t="s">
+      <c r="DJ1" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="DJ1" s="19" t="s">
+      <c r="DK1" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="DK1" s="19" t="s">
+      <c r="DL1" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="DL1" s="19" t="s">
+      <c r="DM1" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="DM1" s="19" t="s">
+      <c r="DN1" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="DN1" s="19" t="s">
+      <c r="DO1" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="DO1" s="18" t="s">
+      <c r="DP1" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="DP1" s="19" t="s">
+      <c r="DQ1" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="DQ1" s="19" t="s">
+      <c r="DR1" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="DR1" s="19" t="s">
+      <c r="DS1" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="DS1" s="19" t="s">
+      <c r="DT1" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="DT1" s="19" t="s">
+      <c r="DU1" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="DU1" s="19" t="s">
+      <c r="DV1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="DV1" s="19" t="s">
+      <c r="DW1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="DW1" s="19" t="s">
+      <c r="DX1" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="DX1" s="19" t="s">
+      <c r="DY1" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="DY1" s="19" t="s">
+      <c r="DZ1" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="DZ1" s="19" t="s">
+      <c r="EA1" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="EA1" s="19" t="s">
+      <c r="EB1" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="EB1" s="19" t="s">
+      <c r="EC1" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="EC1" s="19" t="s">
+      <c r="ED1" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="ED1" s="19" t="s">
+      <c r="EE1" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="EE1" s="19" t="s">
+      <c r="EF1" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="EF1" s="19" t="s">
+      <c r="EG1" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="EG1" s="19" t="s">
+      <c r="EH1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="EH1" s="19" t="s">
+      <c r="EI1" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="EI1" s="19" t="s">
+      <c r="EJ1" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="EJ1" s="19" t="s">
+      <c r="EK1" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="EK1" s="19" t="s">
+      <c r="EL1" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="EL1" s="19" t="s">
+      <c r="EM1" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="EM1" s="19" t="s">
+      <c r="EN1" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="EN1" s="50" t="s">
+      <c r="EO1" s="50" t="s">
         <v>503</v>
-      </c>
-      <c r="EO1" s="50" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:145" x14ac:dyDescent="0.2">
@@ -5992,127 +5989,127 @@
         <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="Q2" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="Q2" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="R2" s="46" t="s">
+      <c r="S2" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="T2" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="S2" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="T2" s="46" t="s">
+      <c r="U2" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="U2" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Z2" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="46" t="s">
         <v>526</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AF2" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AG2" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AH2" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AI2" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="AJ2" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="AI2" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AK2" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="AK2" s="46" t="s">
+      <c r="AL2" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="AL2" s="46" t="s">
+      <c r="AM2" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AM2" s="46" t="s">
+      <c r="AN2" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="AN2" s="46" t="s">
+      <c r="AO2" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="AO2" s="46" t="s">
+      <c r="AP2" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="AP2" s="46" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>537</v>
-      </c>
-      <c r="AQ2" s="46" t="s">
-        <v>538</v>
       </c>
       <c r="AR2" s="46" t="s">
         <v>143</v>
@@ -6121,16 +6118,16 @@
         <v>144</v>
       </c>
       <c r="AT2" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="AU2" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="AU2" s="46" t="s">
+      <c r="AV2" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="AV2" s="46" t="s">
+      <c r="AW2" s="46" t="s">
         <v>541</v>
-      </c>
-      <c r="AW2" s="46" t="s">
-        <v>542</v>
       </c>
       <c r="AX2" s="46" t="s">
         <v>147</v>
@@ -6139,88 +6136,88 @@
         <v>154</v>
       </c>
       <c r="AZ2" s="46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BA2" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="BB2" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="BB2" s="46" t="s">
+      <c r="BC2" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="BC2" s="46" t="s">
+      <c r="BD2" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="BD2" s="46" t="s">
+      <c r="BE2" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="BF2" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="BE2" s="46" t="s">
-        <v>546</v>
-      </c>
-      <c r="BF2" s="46" t="s">
+      <c r="BG2" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="BG2" s="46" t="s">
+      <c r="BH2" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="BH2" s="46" t="s">
+      <c r="BI2" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="BI2" s="46" t="s">
+      <c r="BJ2" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="BJ2" s="46" t="s">
+      <c r="BK2" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="BK2" s="46" t="s">
+      <c r="BL2" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="BM2" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="BL2" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="BM2" s="46" t="s">
+      <c r="BN2" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="BN2" s="46" t="s">
+      <c r="BO2" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="BO2" s="46" t="s">
+      <c r="BP2" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="BP2" s="46" t="s">
+      <c r="BQ2" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="BQ2" s="46" t="s">
+      <c r="BR2" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="BR2" s="46" t="s">
+      <c r="BS2" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="BS2" s="46" t="s">
+      <c r="BT2" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BU2" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="BU2" s="11" t="s">
+      <c r="BV2" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="BW2" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="BX2" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="BV2" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="BW2" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="BX2" s="46" t="s">
+      <c r="BY2" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="BY2" s="46" t="s">
+      <c r="BZ2" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="BZ2" s="46" t="s">
+      <c r="CA2" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="CA2" s="11" t="s">
-        <v>565</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>142</v>
@@ -6229,31 +6226,31 @@
         <v>247</v>
       </c>
       <c r="CD2" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="CE2" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="CE2" s="46" t="s">
+      <c r="CF2" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="CF2" s="46" t="s">
+      <c r="CG2" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="CG2" s="46" t="s">
+      <c r="CH2" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>247</v>
       </c>
       <c r="CK2" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="CL2" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="CL2" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="CM2" s="11" t="s">
         <v>142</v>
@@ -6262,108 +6259,108 @@
         <v>247</v>
       </c>
       <c r="CO2" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="CP2" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="CP2" s="46" t="s">
+      <c r="CQ2" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="CQ2" s="46" t="s">
+      <c r="CR2" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="CS2" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="CT2" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="CR2" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="CS2" s="46" t="s">
-        <v>567</v>
-      </c>
-      <c r="CT2" s="46" t="s">
+      <c r="CU2" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="CU2" s="21" t="s">
+      <c r="CV2" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="CV2" s="21" t="s">
+      <c r="CW2" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="CW2" s="21" t="s">
+      <c r="CX2" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="CX2" s="21" t="s">
+      <c r="CY2" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="CY2" s="21" t="s">
+      <c r="CZ2" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DA2" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="DA2" s="21" t="s">
+      <c r="DB2" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="DB2" s="21" t="s">
+      <c r="DC2" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="DC2" s="21" t="s">
+      <c r="DD2" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="DD2" s="46" t="s">
+      <c r="DE2" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="DE2" s="21" t="s">
+      <c r="DF2" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="DF2" s="21" t="s">
+      <c r="DG2" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="DG2" s="22" t="s">
+      <c r="DH2" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="DI2" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="DH2" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="DI2" s="23" t="s">
+      <c r="DJ2" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="DJ2" s="23" t="s">
+      <c r="DK2" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="DK2" s="23" t="s">
+      <c r="DL2" s="23" t="s">
         <v>593</v>
-      </c>
-      <c r="DL2" s="23" t="s">
-        <v>594</v>
       </c>
       <c r="DM2" s="11"/>
       <c r="DN2" s="11"/>
       <c r="DO2" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="DP2" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="DQ2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="DQ2" s="11" t="s">
+      <c r="DR2" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="DR2" s="23" t="s">
+      <c r="DS2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="DS2" s="11" t="s">
+      <c r="DT2" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="DT2" s="23" t="s">
+      <c r="DU2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="DU2" s="11" t="s">
+      <c r="DV2" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="DV2" s="11" t="s">
+      <c r="DW2" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="DW2" s="24" t="s">
-        <v>602</v>
-      </c>
       <c r="DX2" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="DY2" s="11" t="s">
         <v>176</v>
@@ -6408,13 +6405,13 @@
         <v>176</v>
       </c>
       <c r="EM2" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="EN2" s="45" t="s">
         <v>603</v>
       </c>
-      <c r="EN2" s="45" t="s">
+      <c r="EO2" s="45" t="s">
         <v>604</v>
-      </c>
-      <c r="EO2" s="45" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -6531,142 +6528,142 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN1" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="AM1" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>649</v>
-      </c>
-      <c r="AV1" s="16" t="s">
-        <v>650</v>
       </c>
       <c r="AW1" s="16"/>
       <c r="AX1" s="16"/>
@@ -6727,145 +6724,145 @@
         <v>134</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>652</v>
       </c>
       <c r="D2" s="45">
         <v>8080</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F2" s="47">
         <v>7080</v>
       </c>
       <c r="G2" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>656</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="L2" s="47" t="s">
         <v>657</v>
       </c>
-      <c r="K2" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="47" t="s">
         <v>658</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
         <v>659</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="O2" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="P2" s="47" t="s">
         <v>661</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>662</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S2" s="47" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T2" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="V2" s="47" t="s">
         <v>663</v>
       </c>
-      <c r="U2" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="V2" s="47" t="s">
+      <c r="W2" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="X2" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="X2" s="47" t="s">
+      <c r="Y2" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Z2" s="47" t="s">
         <v>666</v>
       </c>
-      <c r="Z2" s="47" t="s">
+      <c r="AA2" s="47" t="s">
         <v>667</v>
       </c>
-      <c r="AA2" s="47" t="s">
+      <c r="AB2" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="AB2" s="47" t="s">
+      <c r="AC2" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD2" s="47" t="s">
         <v>669</v>
       </c>
-      <c r="AC2" s="47" t="s">
-        <v>669</v>
-      </c>
-      <c r="AD2" s="47" t="s">
+      <c r="AE2" s="47" t="s">
         <v>670</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AF2" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL2" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AF2" s="47" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH2" s="47" t="s">
-        <v>527</v>
-      </c>
-      <c r="AI2" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AN2" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP2" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="AN2" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="AO2" s="29" t="s">
-        <v>672</v>
-      </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AR2" s="47" t="s">
         <v>675</v>
       </c>
-      <c r="AR2" s="47" t="s">
+      <c r="AS2" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="AS2" s="47" t="s">
+      <c r="AT2" s="45" t="s">
         <v>677</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AU2" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AV2" s="45" t="s">
         <v>679</v>
-      </c>
-      <c r="AV2" s="45" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -6882,8 +6879,8 @@
   </sheetPr>
   <dimension ref="A1:EX2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7033,52 +7030,52 @@
         <v>5</v>
       </c>
       <c r="D1" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>681</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>682</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>683</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>685</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>686</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>687</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="O1" s="32" t="s">
+      <c r="P1" s="32" t="s">
         <v>690</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="S1" s="32" t="s">
         <v>693</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>694</v>
       </c>
       <c r="T1" s="32" t="s">
         <v>332</v>
@@ -7162,7 +7159,7 @@
         <v>345</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>140</v>
@@ -7177,46 +7174,46 @@
         <v>247</v>
       </c>
       <c r="J2" s="33">
-        <v>1000</v>
+        <v>99000</v>
       </c>
       <c r="K2" s="33">
         <v>1000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="S2" s="24" t="s">
-        <v>702</v>
-      </c>
       <c r="T2" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="U2" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="U2" s="35" t="s">
-        <v>356</v>
-      </c>
       <c r="V2" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W2" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="47"/>
       <c r="AA2" s="47"/>
@@ -7311,46 +7308,46 @@
       <c r="EI2" s="47"/>
       <c r="EJ2" s="47"/>
       <c r="EK2" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="EM2" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="EO2" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="EL2" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="EO2" s="1" t="s">
+      <c r="EP2" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="EQ2" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="ES2" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="ER2" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="ES2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="EV2" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="EW2" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="EX2" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="EX2" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -7367,7 +7364,7 @@
   </sheetPr>
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
@@ -7420,82 +7417,82 @@
         <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>688</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>720</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="S1" s="51" t="s">
         <v>95</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>614</v>
-      </c>
       <c r="V1" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="W1" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>726</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>727</v>
       </c>
       <c r="Y1" s="51" t="s">
         <v>320</v>
       </c>
       <c r="Z1" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA1" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="AA1" s="17" t="s">
-        <v>729</v>
-      </c>
       <c r="AB1" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="AD1" s="17" t="s">
         <v>336</v>
@@ -7504,16 +7501,16 @@
         <v>321</v>
       </c>
       <c r="AF1" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="AG1" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="AH1" s="16" t="s">
-        <v>732</v>
-      </c>
       <c r="AI1" s="52" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7548,43 +7545,43 @@
         <v>141</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P2" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="R2" s="47" t="s">
         <v>735</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>736</v>
       </c>
       <c r="S2" s="46" t="s">
         <v>189</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U2" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="U2" s="47" t="s">
-        <v>356</v>
-      </c>
       <c r="V2" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W2" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X2" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="11" t="s">
         <v>344</v>
@@ -7594,25 +7591,25 @@
       </c>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD2" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="AC2" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD2" s="47" t="s">
+      <c r="AE2" s="47" t="s">
         <v>738</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AF2" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH2" s="47" t="s">
         <v>739</v>
-      </c>
-      <c r="AF2" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH2" s="47" t="s">
-        <v>750</v>
       </c>
       <c r="AI2" s="11" t="s">
         <v>344</v>
@@ -7631,7 +7628,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="N4" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -7650,7 +7647,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7804,25 +7801,25 @@
         <v>319</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>328</v>
       </c>
       <c r="I1" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>744</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>745</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>332</v>
@@ -7837,13 +7834,13 @@
         <v>341</v>
       </c>
       <c r="R1" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U1" s="17"/>
       <c r="AY1" s="16"/>
@@ -7920,22 +7917,22 @@
         <v>146</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>351</v>
+        <v>745</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>49.32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>345</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M2" s="41" t="s">
         <v>134</v>
@@ -7959,7 +7956,7 @@
         <v>747</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
@@ -8054,7 +8051,7 @@
       <c r="EE2" s="41"/>
       <c r="EF2" s="41"/>
       <c r="EG2" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ03_BaselineSBLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE8703-1E5B-4CB2-951C-C4A25CC911E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56879C-C023-4785-9B96-AC1BE4AC96F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6879,8 +6879,8 @@
   </sheetPr>
   <dimension ref="A1:EX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7174,7 +7174,7 @@
         <v>247</v>
       </c>
       <c r="J2" s="33">
-        <v>99000</v>
+        <v>100000</v>
       </c>
       <c r="K2" s="33">
         <v>1000</v>
